--- a/TestOutput/Hybrid.xlsx
+++ b/TestOutput/Hybrid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="7935" windowWidth="15255" xWindow="120" yWindow="75"/>
+    <workbookView activeTab="3" windowHeight="7935" windowWidth="15255" xWindow="120" yWindow="75"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="117">
   <si>
     <t>TCID</t>
   </si>
@@ -361,19 +361,13 @@
     <t>Asus Zenfone ZYX</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Saurabh235ab</t>
+    <t>Saurabh235abcdef</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Not Executed</t>
   </si>
 </sst>
 </file>
@@ -381,7 +375,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="49">
+  <fonts count="229">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,271 +405,1351 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -742,7 +1816,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="235">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -798,6 +1872,186 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1096,7 +2350,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1131,7 +2385,7 @@
       <c r="C2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s" s="35">
+      <c r="D2" t="s" s="48">
         <v>116</v>
       </c>
     </row>
@@ -1145,7 +2399,7 @@
       <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s" s="53">
+      <c r="D3" t="s" s="168">
         <v>116</v>
       </c>
     </row>
@@ -1157,10 +2411,10 @@
         <v>45</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" t="s">
-        <v>118</v>
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="234">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +2477,7 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="10">
+      <c r="F2" t="s" s="11">
         <v>116</v>
       </c>
     </row>
@@ -1243,7 +2497,7 @@
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="14">
         <v>116</v>
       </c>
     </row>
@@ -1263,7 +2517,7 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="14">
+      <c r="F4" t="s" s="17">
         <v>116</v>
       </c>
     </row>
@@ -1283,7 +2537,7 @@
       <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s" s="16">
+      <c r="F5" t="s" s="20">
         <v>116</v>
       </c>
     </row>
@@ -1303,7 +2557,7 @@
       <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="18">
+      <c r="F6" t="s" s="23">
         <v>116</v>
       </c>
     </row>
@@ -1323,7 +2577,7 @@
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s" s="20">
+      <c r="F7" t="s" s="26">
         <v>116</v>
       </c>
     </row>
@@ -1343,7 +2597,7 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="22">
+      <c r="F8" t="s" s="29">
         <v>116</v>
       </c>
     </row>
@@ -1363,7 +2617,7 @@
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="24">
+      <c r="F9" t="s" s="32">
         <v>116</v>
       </c>
     </row>
@@ -1383,7 +2637,7 @@
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="26">
+      <c r="F10" t="s" s="35">
         <v>116</v>
       </c>
     </row>
@@ -1403,7 +2657,7 @@
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="28">
+      <c r="F11" t="s" s="38">
         <v>116</v>
       </c>
     </row>
@@ -1423,7 +2677,7 @@
       <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="30">
+      <c r="F12" t="s" s="41">
         <v>116</v>
       </c>
     </row>
@@ -1443,7 +2697,7 @@
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="32">
+      <c r="F13" t="s" s="44">
         <v>116</v>
       </c>
     </row>
@@ -1463,7 +2717,7 @@
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="34">
+      <c r="F14" t="s" s="47">
         <v>116</v>
       </c>
     </row>
@@ -1477,7 +2731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1527,7 +2781,7 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="36">
+      <c r="F2" t="s" s="50">
         <v>116</v>
       </c>
     </row>
@@ -1547,7 +2801,7 @@
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="38">
+      <c r="F3" t="s" s="53">
         <v>116</v>
       </c>
     </row>
@@ -1567,7 +2821,7 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="40">
+      <c r="F4" t="s" s="56">
         <v>116</v>
       </c>
     </row>
@@ -1587,7 +2841,7 @@
       <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s" s="42">
+      <c r="F5" t="s" s="59">
         <v>116</v>
       </c>
     </row>
@@ -1607,7 +2861,7 @@
       <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="44">
+      <c r="F6" t="s" s="62">
         <v>116</v>
       </c>
     </row>
@@ -1627,7 +2881,7 @@
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s" s="46">
+      <c r="F7" t="s" s="65">
         <v>116</v>
       </c>
     </row>
@@ -1647,7 +2901,7 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="48">
+      <c r="F8" t="s" s="68">
         <v>116</v>
       </c>
     </row>
@@ -1667,7 +2921,7 @@
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="50">
+      <c r="F9" t="s" s="71">
         <v>116</v>
       </c>
     </row>
@@ -1687,7 +2941,7 @@
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="52">
+      <c r="F10" t="s" s="74">
         <v>116</v>
       </c>
     </row>
@@ -1701,12 +2955,14 @@
       <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="54">
-        <v>117</v>
+      <c r="F11" t="s" s="77">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1725,7 +2981,9 @@
       <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" t="s" s="80">
+        <v>116</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
@@ -1743,7 +3001,9 @@
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" t="s" s="83">
+        <v>116</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
@@ -1761,7 +3021,9 @@
       <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" t="s" s="86">
+        <v>116</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
@@ -1779,7 +3041,9 @@
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" t="s" s="89">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
@@ -1797,7 +3061,9 @@
       <c r="E16" s="2">
         <v>10</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" t="s" s="92">
+        <v>116</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
@@ -1815,7 +3081,9 @@
       <c r="E17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" t="s" s="95">
+        <v>116</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
@@ -1833,7 +3101,9 @@
       <c r="E18" s="2">
         <v>10</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" t="s" s="98">
+        <v>116</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
@@ -1851,7 +3121,9 @@
       <c r="E19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" t="s" s="101">
+        <v>116</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="9" t="s">
@@ -1869,7 +3141,9 @@
       <c r="E20" s="2">
         <v>10</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" t="s" s="104">
+        <v>116</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="9" t="s">
@@ -1887,7 +3161,9 @@
       <c r="E21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" t="s" s="107">
+        <v>116</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
@@ -1905,7 +3181,9 @@
       <c r="E22" s="2">
         <v>10</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" t="s" s="110">
+        <v>116</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="9" t="s">
@@ -1923,7 +3201,9 @@
       <c r="E23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" t="s" s="113">
+        <v>116</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="9" t="s">
@@ -1941,7 +3221,9 @@
       <c r="E24" s="2">
         <v>10</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" t="s" s="116">
+        <v>116</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
@@ -1957,9 +3239,11 @@
         <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="F25" t="s" s="119">
+        <v>116</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="9" t="s">
@@ -1977,7 +3261,9 @@
       <c r="E26" s="2">
         <v>10</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" t="s" s="122">
+        <v>116</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="9" t="s">
@@ -1995,7 +3281,9 @@
       <c r="E27" s="2">
         <v>98123456789</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" t="s" s="125">
+        <v>116</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="9" t="s">
@@ -2013,7 +3301,9 @@
       <c r="E28" s="2">
         <v>10</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" t="s" s="128">
+        <v>116</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="9" t="s">
@@ -2031,7 +3321,9 @@
       <c r="E29" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" t="s" s="131">
+        <v>116</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="9" t="s">
@@ -2049,7 +3341,9 @@
       <c r="E30" s="2">
         <v>10</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" t="s" s="134">
+        <v>116</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="9" t="s">
@@ -2067,7 +3361,9 @@
       <c r="E31" s="2">
         <v>875987654321</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" t="s" s="137">
+        <v>116</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="9" t="s">
@@ -2085,7 +3381,9 @@
       <c r="E32" s="2">
         <v>10</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" t="s" s="140">
+        <v>116</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="9" t="s">
@@ -2103,7 +3401,9 @@
       <c r="E33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" t="s" s="143">
+        <v>116</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="9" t="s">
@@ -2121,7 +3421,9 @@
       <c r="E34" s="2">
         <v>10</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" t="s" s="146">
+        <v>116</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="9" t="s">
@@ -2137,7 +3439,9 @@
         <v>89</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" t="s" s="149">
+        <v>116</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="9" t="s">
@@ -2155,7 +3459,9 @@
       <c r="E36" s="2">
         <v>10</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" t="s" s="152">
+        <v>116</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="9" t="s">
@@ -2171,7 +3477,9 @@
         <v>90</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" t="s" s="155">
+        <v>116</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="9" t="s">
@@ -2189,7 +3497,9 @@
       <c r="E38" s="2">
         <v>10</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" t="s" s="158">
+        <v>116</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="9" t="s">
@@ -2205,7 +3515,9 @@
         <v>111</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" t="s" s="161">
+        <v>116</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="9" t="s">
@@ -2223,7 +3535,9 @@
       <c r="E40" s="2">
         <v>6</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" t="s" s="164">
+        <v>116</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="9" t="s">
@@ -2239,7 +3553,9 @@
         <v>20</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" t="s" s="167">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2253,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2302,7 +3618,9 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" t="s" s="170">
+        <v>116</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2320,7 +3638,9 @@
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" t="s" s="173">
+        <v>116</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
@@ -2338,7 +3658,9 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" t="s" s="176">
+        <v>116</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
@@ -2356,7 +3678,9 @@
       <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" t="s" s="179">
+        <v>116</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
@@ -2374,7 +3698,9 @@
       <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" t="s" s="182">
+        <v>116</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
@@ -2392,7 +3718,9 @@
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" t="s" s="185">
+        <v>116</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
@@ -2410,7 +3738,9 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" t="s" s="188">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
@@ -2428,7 +3758,9 @@
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" t="s" s="191">
+        <v>116</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
@@ -2446,7 +3778,9 @@
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" t="s" s="194">
+        <v>116</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
@@ -2464,7 +3798,9 @@
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" t="s" s="197">
+        <v>116</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
@@ -2482,7 +3818,9 @@
       <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" t="s" s="200">
+        <v>116</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
@@ -2500,7 +3838,9 @@
       <c r="E13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" t="s" s="203">
+        <v>116</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
@@ -2518,7 +3858,9 @@
       <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" t="s" s="206">
+        <v>116</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
@@ -2536,7 +3878,9 @@
       <c r="E15" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" t="s" s="209">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
@@ -2554,7 +3898,9 @@
       <c r="E16" s="9">
         <v>10</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" t="s" s="212">
+        <v>116</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
@@ -2572,7 +3918,9 @@
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" t="s" s="215">
+        <v>116</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
@@ -2590,7 +3938,9 @@
       <c r="E18" s="2">
         <v>10</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" t="s" s="218">
+        <v>116</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
@@ -2608,7 +3958,9 @@
       <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" t="s" s="221">
+        <v>116</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="9" t="s">
@@ -2626,7 +3978,9 @@
       <c r="E20" s="2">
         <v>10</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" t="s" s="224">
+        <v>116</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="9" t="s">
@@ -2644,7 +3998,9 @@
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" t="s" s="227">
+        <v>116</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
@@ -2662,7 +4018,9 @@
       <c r="E22" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" t="s" s="230">
+        <v>116</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="9" t="s">
@@ -2680,7 +4038,9 @@
       <c r="E23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" t="s" s="233">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
